--- a/Clean data sheets/Larval heat tolerance binary.xlsx
+++ b/Clean data sheets/Larval heat tolerance binary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3426F0E5-A07C-0C48-B412-EF2C35025FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F516F5B-76CD-394C-9C0C-B7D3F70C01D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13740" xr2:uid="{00C0C071-BC15-7B4F-A659-D3867C126BEB}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>Survival</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>Acidic</t>
   </si>
   <si>
-    <t>Acidic</t>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -456,7 +456,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -467,7 +467,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -489,7 +489,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -511,7 +511,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -522,7 +522,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -544,7 +544,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -621,7 +621,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>39.5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>39.5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>39.5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>39.5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>39.5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>39.5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>39.5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>39.5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>39.5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>39.5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>39.5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>39.5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>39.5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>39.5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>39.5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>39.5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>39.5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>39.5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>39.5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>39.5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>39.5</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>39.5</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>39.5</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>39.5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -1402,7 +1402,7 @@
         <v>39.5</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>39.5</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>39.5</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>39.5</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>39.5</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>39.5</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>39.5</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>39.5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>39.5</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>39.5</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>39.5</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>39.5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>39.5</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>39.5</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -1556,7 +1556,7 @@
         <v>39.5</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>39.5</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>39.5</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>39.5</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>39.5</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>39.5</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>39.5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>39.5</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>39.5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>39.5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -1666,7 +1666,7 @@
         <v>39.5</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>39.5</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>39.5</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>39.5</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>39.5</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>39.5</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>39.5</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>39.5</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>39.5</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>39.5</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>39.5</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>39.5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>39.5</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>39.5</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C127" s="1">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>39.5</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128" s="1">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>39.5</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" s="1">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" s="1">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>40</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C131" s="1">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132" s="1">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133" s="1">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>40</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>40</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>40</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>40</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>40</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -1974,7 +1974,7 @@
         <v>40</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>40</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>40</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>40</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>40</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -2051,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         <v>40</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>40</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>40</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -2095,7 +2095,7 @@
         <v>40</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>40</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -2128,7 +2128,7 @@
         <v>40</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -2139,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>40</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -2161,7 +2161,7 @@
         <v>40</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>40</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>40</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>40</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>40</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="1">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>40</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="1">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>40</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>40</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>40</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>40</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>40</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>40</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>40</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
@@ -2326,7 +2326,7 @@
         <v>40</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>40</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
@@ -2348,7 +2348,7 @@
         <v>40</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>40</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>40</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>40</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="1">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         <v>40</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" s="1">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>40</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>40</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>40</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" s="1">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>40</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>40</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" s="1">
         <v>1</v>
@@ -2469,7 +2469,7 @@
         <v>40</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>40</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>40</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
@@ -2502,7 +2502,7 @@
         <v>40</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
@@ -2513,7 +2513,7 @@
         <v>40</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>40</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>40</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
@@ -2546,7 +2546,7 @@
         <v>40.5</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>40.5</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C195" s="1">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>40.5</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>40.5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
@@ -2590,7 +2590,7 @@
         <v>40.5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>40.5</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
@@ -2612,7 +2612,7 @@
         <v>40.5</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         <v>40.5</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
@@ -2634,7 +2634,7 @@
         <v>40.5</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>40.5</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C203" s="1">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>40.5</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C204" s="1">
         <v>1</v>
@@ -2667,7 +2667,7 @@
         <v>40.5</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C205" s="1">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>40.5</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C206" s="1">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>40.5</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C207" s="1">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>40.5</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C208" s="1">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>40.5</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C209" s="1">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>40.5</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C210" s="1">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>40.5</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C211" s="1">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>40.5</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C212" s="1">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>40.5</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C213" s="1">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>40.5</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C214" s="1">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>40.5</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C215" s="1">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>40.5</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C216" s="1">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         <v>40.5</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C217" s="1">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>40.5</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C218" s="1">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>40.5</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C219" s="1">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>40.5</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>40.5</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C221" s="1">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>40.5</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C222" s="1">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>40.5</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C223" s="1">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>40.5</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C224" s="1">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>40.5</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C225" s="1">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>40.5</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226" s="1">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>40.5</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227" s="1">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         <v>40.5</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" s="1">
         <v>1</v>
@@ -2931,7 +2931,7 @@
         <v>40.5</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" s="1">
         <v>1</v>
@@ -2942,7 +2942,7 @@
         <v>40.5</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" s="1">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>40.5</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="1">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>40.5</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" s="1">
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>40.5</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233" s="1">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         <v>40.5</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>40.5</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C235" s="1">
         <v>1</v>
@@ -3008,7 +3008,7 @@
         <v>40.5</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="1">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>40.5</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C237" s="1">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>40.5</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238" s="1">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>40.5</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="1">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>40.5</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>40.5</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" s="1">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>40.5</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="1">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>40.5</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C243" s="1">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>40.5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244" s="1">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>40.5</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" s="1">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>40.5</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246" s="1">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>40.5</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" s="1">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>40.5</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248" s="1">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>40.5</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249" s="1">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>40.5</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>40.5</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251" s="1">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>40.5</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>40.5</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" s="1">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>40.5</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="1">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>40.5</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="1">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>40.5</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="1">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>40.5</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>41</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
@@ -3261,7 +3261,7 @@
         <v>41</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>41</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
@@ -3283,7 +3283,7 @@
         <v>41</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C261" s="1">
         <v>1</v>
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C262" s="1">
         <v>1</v>
@@ -3305,7 +3305,7 @@
         <v>41</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C263" s="1">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>41</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C264" s="1">
         <v>1</v>
@@ -3327,7 +3327,7 @@
         <v>41</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>41</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C266" s="1">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>41</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C267" s="1">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>41</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C268" s="1">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>41</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C269" s="1">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C270" s="1">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>41</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>41</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>41</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C273" s="1">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>41</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C274" s="1">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>41</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C275" s="1">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>41</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C276" s="1">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>41</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C277" s="1">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>41</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C278" s="1">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>41</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C279" s="1">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>41</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C280" s="1">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>41</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C281" s="1">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>41</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C282" s="1">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>41</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C283" s="1">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>41</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>41</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>41</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C286" s="1">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>41</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C287" s="1">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>41</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C288" s="1">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>41</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C289" s="1">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>41</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C290" s="1">
         <v>1</v>
@@ -3613,7 +3613,7 @@
         <v>41</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C291" s="1">
         <v>1</v>
@@ -3624,7 +3624,7 @@
         <v>41</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C292" s="1">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>41</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
@@ -3646,7 +3646,7 @@
         <v>41</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C294" s="1">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>41</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C295" s="1">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>41</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C296" s="1">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>41</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C297" s="1">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>41</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C298" s="1">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>41</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>41</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C300" s="1">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>41</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C301" s="1">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>41</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C302" s="1">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>41</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C303" s="1">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>41</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C304" s="1">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>41</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C305" s="1">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>41</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>41</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C307" s="1">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>41</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C308" s="1">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>41</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C309" s="1">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>41</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C310" s="1">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>41</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C311" s="1">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C312" s="1">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>41</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C313" s="1">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>41</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C314" s="1">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>41</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315" s="1">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C316" s="1">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>41</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C317" s="1">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>41</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C318" s="1">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>41</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C319" s="1">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>41</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>41</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C321" s="1">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>41.5</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C322" s="1">
         <v>1</v>
@@ -3965,7 +3965,7 @@
         <v>41.5</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C323" s="1">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         <v>41.5</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C324" s="1">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>41.5</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C325" s="1">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>41.5</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C326" s="1">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>41.5</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>41.5</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>41.5</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C329" s="1">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>41.5</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C330" s="1">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>41.5</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C331" s="1">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>41.5</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C332" s="1">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>41.5</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C333" s="1">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>41.5</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>41.5</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C335" s="1">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>41.5</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C336" s="1">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>41.5</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C337" s="1">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>41.5</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C338" s="1">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>41.5</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C339" s="1">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>41.5</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C340" s="1">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>41.5</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C341" s="1">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>41.5</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C342" s="1">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>41.5</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C343" s="1">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>41.5</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C344" s="1">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>41.5</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C345" s="1">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>41.5</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C346" s="1">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>41.5</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>41.5</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C348" s="1">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>41.5</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C349" s="1">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>41.5</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C350" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>41.5</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C351" s="1">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>41.5</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C352" s="1">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>41.5</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C353" s="1">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>41.5</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C354" s="1">
         <v>1</v>
@@ -4317,7 +4317,7 @@
         <v>41.5</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>41.5</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C356" s="1">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>41.5</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C357" s="1">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>41.5</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C358" s="1">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>41.5</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C359" s="1">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>41.5</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C360" s="1">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>41.5</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C361" s="1">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>41.5</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C362" s="1">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>41.5</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C363" s="1">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>41.5</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C364" s="1">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>41.5</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C365" s="1">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>41.5</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C366" s="1">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>41.5</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C367" s="1">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>41.5</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C368" s="1">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>41.5</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C369" s="1">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>41.5</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C370" s="1">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>41.5</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C371" s="1">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>41.5</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C372" s="1">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>41.5</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C373" s="1">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>41.5</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C374" s="1">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>41.5</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C375" s="1">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>41.5</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C376" s="1">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>41.5</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C377" s="1">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>41.5</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C378" s="1">
         <v>0</v>
@@ -4581,7 +4581,7 @@
         <v>41.5</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C379" s="1">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>41.5</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C380" s="1">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>41.5</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C381" s="1">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>41.5</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C382" s="1">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>41.5</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C383" s="1">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>41.5</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C384" s="1">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>41.5</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C385" s="1">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>42</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C386" s="1">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C387" s="1">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>42</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C388" s="1">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>42</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C389" s="1">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>42</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C390" s="1">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>42</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C391" s="1">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>42</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C392" s="1">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>42</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C393" s="1">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>42</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C394" s="1">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>42</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C395" s="1">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>42</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C396" s="1">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>42</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C397" s="1">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>42</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C398" s="1">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>42</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C399" s="1">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>42</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C400" s="1">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>42</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C401" s="1">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>42</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C402" s="1">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>42</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C403" s="1">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>42</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C404" s="1">
         <v>0</v>
@@ -4867,7 +4867,7 @@
         <v>42</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C405" s="1">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>42</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C406" s="1">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>42</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C407" s="1">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>42</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C408" s="1">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>42</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C409" s="1">
         <v>0</v>
@@ -4922,7 +4922,7 @@
         <v>42</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C410" s="1">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>42</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C411" s="1">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>42</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C412" s="1">
         <v>0</v>
@@ -4955,7 +4955,7 @@
         <v>42</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C413" s="1">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>42</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C414" s="1">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>42</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C415" s="1">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>42</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C416" s="1">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>42</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C417" s="1">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>42</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C418" s="1">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>42</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C419" s="1">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>42</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C420" s="1">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>42</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C421" s="1">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>42</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C422" s="1">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>42</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C423" s="1">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>42</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C424" s="1">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>42</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C425" s="1">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>42</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C426" s="1">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>42</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C427" s="1">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>42</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C428" s="1">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>42</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C429" s="1">
         <v>0</v>
@@ -5142,7 +5142,7 @@
         <v>42</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C430" s="1">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>42</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C431" s="1">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>42</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C432" s="1">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>42</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C433" s="1">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>42</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C434" s="1">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>42</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C435" s="1">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>42</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C436" s="1">
         <v>0</v>
@@ -5219,7 +5219,7 @@
         <v>42</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C437" s="1">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>42</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C438" s="1">
         <v>0</v>
@@ -5241,7 +5241,7 @@
         <v>42</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C439" s="1">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>42</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C440" s="1">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>42</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C441" s="1">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>42</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C442" s="1">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>42</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C443" s="1">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>42</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C444" s="1">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>42</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C445" s="1">
         <v>0</v>
@@ -5318,7 +5318,7 @@
         <v>42</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C446" s="1">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>42</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C447" s="1">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>42</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C448" s="1">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>42</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C449" s="1">
         <v>0</v>
@@ -5362,7 +5362,7 @@
         <v>42.5</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C450" s="1">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>42.5</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C451" s="1">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>42.5</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C452" s="1">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>42.5</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C453" s="1">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>42.5</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C454" s="1">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>42.5</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C455" s="1">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>42.5</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C456" s="1">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>42.5</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C457" s="1">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>42.5</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C458" s="1">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>42.5</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C459" s="1">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>42.5</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C460" s="1">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>42.5</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C461" s="1">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>42.5</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C462" s="1">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>42.5</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C463" s="1">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>42.5</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C464" s="1">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>42.5</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C465" s="1">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>42.5</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C466" s="1">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>42.5</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C467" s="1">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>42.5</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C468" s="1">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>42.5</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C469" s="1">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>42.5</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C470" s="1">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>42.5</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C471" s="1">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>42.5</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C472" s="1">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>42.5</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C473" s="1">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>42.5</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C474" s="1">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>42.5</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C475" s="1">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>42.5</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C476" s="1">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>42.5</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C477" s="1">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>42.5</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C478" s="1">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>42.5</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C479" s="1">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>42.5</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C480" s="1">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>42.5</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C481" s="1">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>42.5</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C482" s="1">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>42.5</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C483" s="1">
         <v>0</v>
@@ -5736,7 +5736,7 @@
         <v>42.5</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C484" s="1">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>42.5</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C485" s="1">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>42.5</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C486" s="1">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>42.5</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C487" s="1">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>42.5</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C488" s="1">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>42.5</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C489" s="1">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>42.5</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C490" s="1">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>42.5</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C491" s="1">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>42.5</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C492" s="1">
         <v>0</v>
@@ -5835,7 +5835,7 @@
         <v>42.5</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C493" s="1">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>42.5</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C494" s="1">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>42.5</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C495" s="1">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>42.5</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C496" s="1">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>42.5</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C497" s="1">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>42.5</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C498" s="1">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>42.5</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C499" s="1">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>42.5</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C500" s="1">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>42.5</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C501" s="1">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>42.5</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C502" s="1">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>42.5</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C503" s="1">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>42.5</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C504" s="1">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>42.5</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C505" s="1">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>42.5</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C506" s="1">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>42.5</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C507" s="1">
         <v>0</v>
@@ -6000,7 +6000,7 @@
         <v>42.5</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C508" s="1">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>42.5</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C509" s="1">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>42.5</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C510" s="1">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>42.5</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C511" s="1">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>42.5</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C512" s="1">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>42.5</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C513" s="1">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>43</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C514" s="1">
         <v>0</v>
@@ -6077,7 +6077,7 @@
         <v>43</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C515" s="1">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>43</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C516" s="1">
         <v>0</v>
@@ -6099,7 +6099,7 @@
         <v>43</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C517" s="1">
         <v>0</v>
@@ -6110,7 +6110,7 @@
         <v>43</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C518" s="1">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>43</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C519" s="1">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>43</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C520" s="1">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>43</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C521" s="1">
         <v>0</v>
@@ -6154,7 +6154,7 @@
         <v>43</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C522" s="1">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>43</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C523" s="1">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>43</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C524" s="1">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>43</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C525" s="1">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>43</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C526" s="1">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>43</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C527" s="1">
         <v>0</v>
@@ -6220,7 +6220,7 @@
         <v>43</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C528" s="1">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>43</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C529" s="1">
         <v>0</v>
@@ -6242,7 +6242,7 @@
         <v>43</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C530" s="1">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>43</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C531" s="1">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>43</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C532" s="1">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>43</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C533" s="1">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>43</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C534" s="1">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>43</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C535" s="1">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>43</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C536" s="1">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>43</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C537" s="1">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>43</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C538" s="1">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>43</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C539" s="1">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>43</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C540" s="1">
         <v>0</v>
@@ -6363,7 +6363,7 @@
         <v>43</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C541" s="1">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>43</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C542" s="1">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>43</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C543" s="1">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>43</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C544" s="1">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>43</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C545" s="1">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>43</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C546" s="1">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>43</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C547" s="1">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>43</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C548" s="1">
         <v>0</v>
@@ -6451,7 +6451,7 @@
         <v>43</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C549" s="1">
         <v>0</v>
@@ -6462,7 +6462,7 @@
         <v>43</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C550" s="1">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>43</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C551" s="1">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>43</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C552" s="1">
         <v>0</v>
@@ -6495,7 +6495,7 @@
         <v>43</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C553" s="1">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>43</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C554" s="1">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>43</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C555" s="1">
         <v>0</v>
@@ -6528,7 +6528,7 @@
         <v>43</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C556" s="1">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>43</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C557" s="1">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>43</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C558" s="1">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>43</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C559" s="1">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>43</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C560" s="1">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>43</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C561" s="1">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>43</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C562" s="1">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>43</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C563" s="1">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>43</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C564" s="1">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>43</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C565" s="1">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>43</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C566" s="1">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>43</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C567" s="1">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>43</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C568" s="1">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>43</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C569" s="1">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>43</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C570" s="1">
         <v>0</v>
@@ -6693,7 +6693,7 @@
         <v>43</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C571" s="1">
         <v>0</v>
@@ -6704,7 +6704,7 @@
         <v>43</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C572" s="1">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>43</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C573" s="1">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>43</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C574" s="1">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>43</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C575" s="1">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>43</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C576" s="1">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>43</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C577" s="1">
         <v>0</v>
